--- a/src/module9/TestData/TestData.xlsx
+++ b/src/module9/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{DA68093E-932E-4BB7-8ED6-2779E8A7372A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100800_{38278B09-DAB3-475B-92F3-DBA3EC7947ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="5925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16545" windowHeight="3720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P10"/>
+  <oleSize ref="A1:O10"/>
 </workbook>
 </file>
 
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
